--- a/exposan/biogenic_refinery/results/sysB_China.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_China.xlsx
@@ -15672,7 +15672,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E4">
-        <v>35.02485241883082</v>
+        <v>35.02485241883081</v>
       </c>
       <c r="F4">
         <v>20.25977757573976</v>
@@ -15788,7 +15788,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E8">
-        <v>35.50301600609664</v>
+        <v>35.50301600609663</v>
       </c>
       <c r="F8">
         <v>3.768202407684791</v>
@@ -26399,7 +26399,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E8">
-        <v>34.7481194441526</v>
+        <v>34.74811944415259</v>
       </c>
       <c r="F8">
         <v>5.629640640958013</v>
@@ -26428,7 +26428,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E9">
-        <v>37.80660365181609</v>
+        <v>37.80660365181608</v>
       </c>
       <c r="F9">
         <v>18.73959942267508</v>
@@ -38057,7 +38057,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="OT4">
-        <v>35.02485241883082</v>
+        <v>35.02485241883081</v>
       </c>
       <c r="OU4">
         <v>20.25977757573976</v>
@@ -43033,7 +43033,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="OT8">
-        <v>35.50301600609664</v>
+        <v>35.50301600609663</v>
       </c>
       <c r="OU8">
         <v>3.768202407684791</v>
